--- a/Pointer.xlsx
+++ b/Pointer.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>Address</t>
   </si>
@@ -210,9 +211,6 @@
     <t>*p=765</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
@@ -250,16 +248,66 @@
   </si>
   <si>
     <t>*p=965</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>00FE56AE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>double x , *p</t>
+  </si>
+  <si>
+    <t>00ef5685</t>
+  </si>
+  <si>
+    <t>00ef6032</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>00ef568d</t>
+  </si>
+  <si>
+    <t>8d</t>
+  </si>
+  <si>
+    <t>c5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -273,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,18 +395,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -718,7 +794,7 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -818,7 +894,7 @@
         <v>21</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>41</v>
@@ -829,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>41</v>
@@ -840,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>54</v>
@@ -851,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>41</v>
@@ -872,7 +948,7 @@
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.3">
@@ -881,7 +957,7 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.3">
@@ -1016,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1128,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
@@ -1064,15 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1082,36 +1164,46 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="H9">
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
@@ -1153,19 +1245,19 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1175,6 +1267,188 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
